--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284494.4313295784</v>
+        <v>284759.1683802761</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18185884.29513059</v>
+        <v>18822641.55253906</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8728203.005386103</v>
+        <v>9018216.924231078</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5781595.511920524</v>
+        <v>5620449.819626645</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>98.78933691316294</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>322.9285688533241</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -817,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>123.0673923170403</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>98.15366458399293</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -896,19 +898,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>122.5851894922878</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>58.67748875058511</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1056,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>123.0673923170403</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>180.0491588678921</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>208.7274089094591</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>4.378995526348825</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1370,19 +1372,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>122.5851894922878</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>58.67748875058492</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526348374</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>80.09898741776068</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>37.39972735518523</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>66.72457055527012</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>143.4117052802574</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>96.44420510686369</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>235.6572571314082</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>182.651299127331</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>19.08283277094802</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>128.200599769098</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2327,16 +2329,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>376.2268075574883</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>123.8905372573238</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.76503089144458</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2494,7 +2496,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>58.0296012441449</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2536,10 +2538,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>43.71862885445695</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>262.109398220601</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>25.45817320599537</v>
       </c>
       <c r="H28" t="n">
-        <v>15.90149023681957</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,19 +2800,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>214.9734141664059</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>17.96867077268757</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>98.15366458399242</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3007,10 +3009,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>57.84742609511886</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>187.7303633741246</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>383.378416993701</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3241,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>117.6389794551517</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>11.2029639778262</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3329,7 +3331,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>150.6171351583636</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>241.934807305051</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>209.7612727945902</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>409.6844282232734</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>221.0628180816374</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>54.76663795506237</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>106.8587867191408</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>187.7303633741245</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>168.1413207262884</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3901,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>77.34040729634083</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3977,10 +3979,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>78.7531660291623</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.004329194326</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4068,10 +4070,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>93.11323406457203</v>
+        <v>92.63376431607153</v>
       </c>
       <c r="H45" t="n">
-        <v>52.84233230531351</v>
+        <v>48.21166394479565</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>71.60506467971084</v>
       </c>
       <c r="T45" t="n">
-        <v>140.4611363452985</v>
+        <v>138.5285367888426</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9205141195597</v>
+        <v>182.8889700571583</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -4135,22 +4137,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>68.83205621563052</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>216.2010468735359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1399.725618125736</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="C2" t="n">
-        <v>1399.725618125736</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D2" t="n">
-        <v>1299.938409122541</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E2" t="n">
-        <v>873.9614692703988</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F2" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G2" t="n">
         <v>44.49822504924752</v>
@@ -4331,25 +4333,25 @@
         <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336854</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L2" t="n">
-        <v>1123.5801824935</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M2" t="n">
-        <v>1123.5801824935</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462376</v>
@@ -4358,22 +4360,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462376</v>
+        <v>1677.795207917793</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462376</v>
+        <v>1281.40385821814</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.911252462376</v>
+        <v>869.6838593858872</v>
       </c>
       <c r="Y2" t="n">
-        <v>1819.573982417266</v>
+        <v>464.3465893407776</v>
       </c>
     </row>
     <row r="3">
@@ -4389,40 +4391,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
         <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
         <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115936</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>874.3078922751884</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L3" t="n">
-        <v>874.3078922751884</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M3" t="n">
-        <v>874.3078922751884</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N3" t="n">
-        <v>874.3078922751884</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O3" t="n">
-        <v>874.3078922751884</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P3" t="n">
         <v>1307.021068682275</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5772905989112</v>
+        <v>315.6159039117385</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5772905989112</v>
+        <v>143.6433407906545</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5772905989112</v>
+        <v>143.6433407906545</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5772905989112</v>
+        <v>143.6433407906545</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5772905989112</v>
+        <v>143.6433407906545</v>
       </c>
       <c r="G4" t="n">
-        <v>268.5772905989112</v>
+        <v>143.6433407906545</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>143.6433407906545</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
@@ -4495,7 +4497,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
@@ -4510,28 +4512,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754298</v>
+        <v>974.688537488257</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212348</v>
+        <v>732.1246409340621</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.7432593109769</v>
+        <v>505.7818726238041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.614269593831</v>
+        <v>1805.062888170846</v>
       </c>
       <c r="C5" t="n">
-        <v>591.614269593831</v>
+        <v>1378.162158184146</v>
       </c>
       <c r="D5" t="n">
-        <v>168.3216487788312</v>
+        <v>954.8695373691464</v>
       </c>
       <c r="E5" t="n">
-        <v>168.3216487788312</v>
+        <v>528.892597517004</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924753</v>
+        <v>103.7684157064042</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1145.829295018124</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="O5" t="n">
-        <v>1696.494830002562</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W5" t="n">
-        <v>1828.519902762723</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X5" t="n">
-        <v>1416.799903930471</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y5" t="n">
-        <v>1011.462633885361</v>
+        <v>2224.911252462376</v>
       </c>
     </row>
     <row r="6">
@@ -4632,16 +4634,16 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
         <v>316.1957143288386</v>
@@ -4650,16 +4652,16 @@
         <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="M6" t="n">
-        <v>838.3748437825398</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="N6" t="n">
-        <v>1389.040378766978</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="P6" t="n">
         <v>1389.040378766978</v>
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5772905989112</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5772905989112</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5772905989112</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5772905989112</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>268.5772905989112</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734057</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M7" t="n">
         <v>1074.392270743914</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.684136187512</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C8" t="n">
-        <v>1190.783406200812</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D8" t="n">
-        <v>767.4907853858125</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E8" t="n">
-        <v>767.4907853858125</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F8" t="n">
-        <v>342.3666035752127</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
         <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U8" t="n">
-        <v>2014.075485887165</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>2014.075485887165</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W8" t="n">
-        <v>1617.684136187512</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="X8" t="n">
-        <v>1617.684136187512</v>
+        <v>1333.910773271169</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.684136187512</v>
+        <v>928.5735032260592</v>
       </c>
     </row>
     <row r="9">
@@ -4869,40 +4871,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924753</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="M9" t="n">
-        <v>205.6899987133984</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N9" t="n">
-        <v>756.3555336978366</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.7432593109778</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>458.7432593109778</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>458.7432593109778</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>458.7432593109778</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4957,55 +4959,55 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734057</v>
       </c>
       <c r="K10" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M10" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394889</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002918</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754307</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212358</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109778</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>591.614269593831</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C11" t="n">
-        <v>591.614269593831</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D11" t="n">
-        <v>168.3216487788312</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E11" t="n">
-        <v>168.3216487788312</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F11" t="n">
-        <v>168.3216487788312</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J11" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K11" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L11" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M11" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074142</v>
       </c>
       <c r="N11" t="n">
-        <v>2059.098288819458</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O11" t="n">
-        <v>2059.098288819458</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P11" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W11" t="n">
-        <v>1828.519902762723</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="X11" t="n">
-        <v>1416.799903930471</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y11" t="n">
-        <v>1011.462633885361</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5108,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J12" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K12" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L12" t="n">
-        <v>316.1957143288386</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M12" t="n">
-        <v>316.1957143288386</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N12" t="n">
-        <v>756.3555336978366</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O12" t="n">
-        <v>1307.021068682275</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P12" t="n">
-        <v>1307.021068682275</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q12" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R12" t="n">
         <v>1853.185855629757</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1127.679347573484</v>
+        <v>458.7432593109774</v>
       </c>
       <c r="C13" t="n">
-        <v>955.7067844524004</v>
+        <v>458.7432593109774</v>
       </c>
       <c r="D13" t="n">
-        <v>792.3900115791711</v>
+        <v>458.7432593109774</v>
       </c>
       <c r="E13" t="n">
-        <v>626.1818057320246</v>
+        <v>458.7432593109774</v>
       </c>
       <c r="F13" t="n">
         <v>454.3200315065851</v>
@@ -5194,16 +5196,16 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J13" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734057</v>
       </c>
       <c r="K13" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L13" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M13" t="n">
         <v>1074.392270743914</v>
@@ -5221,28 +5223,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S13" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T13" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U13" t="n">
-        <v>2224.911252462376</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V13" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W13" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X13" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y13" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109774</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1805.062888170846</v>
+        <v>1355.565386959618</v>
       </c>
       <c r="C14" t="n">
-        <v>1378.162158184147</v>
+        <v>928.6646569729185</v>
       </c>
       <c r="D14" t="n">
-        <v>954.8695373691469</v>
+        <v>505.3720361579187</v>
       </c>
       <c r="E14" t="n">
-        <v>954.8695373691469</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F14" t="n">
-        <v>529.7453555585471</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G14" t="n">
-        <v>125.4062931479957</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L14" t="n">
-        <v>572.914647509062</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M14" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N14" t="n">
-        <v>1674.245717477938</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O14" t="n">
-        <v>2224.911252462377</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.911252462377</v>
+        <v>2187.133750083401</v>
       </c>
       <c r="X14" t="n">
-        <v>2224.911252462377</v>
+        <v>1775.413751251148</v>
       </c>
       <c r="Y14" t="n">
-        <v>2224.911252462377</v>
+        <v>1775.413751251148</v>
       </c>
     </row>
     <row r="15">
@@ -5343,34 +5345,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L15" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="M15" t="n">
-        <v>1145.829295018124</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N15" t="n">
-        <v>1696.494830002562</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="O15" t="n">
-        <v>1853.185855629757</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P15" t="n">
         <v>1853.185855629757</v>
@@ -5431,7 +5433,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1813.191253630124</v>
+        <v>897.3758948880899</v>
       </c>
       <c r="C17" t="n">
-        <v>1386.290523643424</v>
+        <v>470.47516490139</v>
       </c>
       <c r="D17" t="n">
-        <v>962.9979028284242</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E17" t="n">
-        <v>537.0209629762818</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F17" t="n">
-        <v>111.896781165682</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G17" t="n">
-        <v>111.896781165682</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M17" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="N17" t="n">
-        <v>1674.245717477938</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="O17" t="n">
-        <v>2224.911252462377</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462377</v>
+        <v>2080.05094409848</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462377</v>
+        <v>1722.561529224729</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462377</v>
+        <v>1722.561529224729</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.191253630124</v>
+        <v>1722.561529224729</v>
       </c>
       <c r="Y17" t="n">
-        <v>1813.191253630124</v>
+        <v>1317.22425917962</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5582,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I18" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J18" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K18" t="n">
-        <v>51.94486801115937</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L18" t="n">
-        <v>602.6104029955975</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M18" t="n">
-        <v>1153.275937980036</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.021068682275</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="O18" t="n">
-        <v>1307.021068682275</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P18" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q18" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R18" t="n">
         <v>1853.185855629757</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>485.7509513926031</v>
+        <v>798.1543688531086</v>
       </c>
       <c r="C19" t="n">
-        <v>313.7783882715191</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="D19" t="n">
-        <v>313.7783882715191</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E19" t="n">
-        <v>216.3599992746871</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F19" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G19" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5695,28 +5697,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S19" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T19" t="n">
-        <v>1981.571904688275</v>
+        <v>1769.699958202615</v>
       </c>
       <c r="U19" t="n">
-        <v>1701.38745618858</v>
+        <v>1489.515509702919</v>
       </c>
       <c r="V19" t="n">
-        <v>1419.675988796609</v>
+        <v>1489.515509702919</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.823584969122</v>
+        <v>1214.663105875432</v>
       </c>
       <c r="X19" t="n">
-        <v>902.2596884149267</v>
+        <v>1214.663105875432</v>
       </c>
       <c r="Y19" t="n">
-        <v>675.9169201046687</v>
+        <v>988.3203375651742</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1753.37893010211</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="C20" t="n">
-        <v>1326.47820011541</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="D20" t="n">
-        <v>903.1855793004106</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="E20" t="n">
-        <v>477.2086394482681</v>
+        <v>633.3335492045777</v>
       </c>
       <c r="F20" t="n">
-        <v>52.08445763766833</v>
+        <v>633.3335492045777</v>
       </c>
       <c r="G20" t="n">
-        <v>52.08445763766833</v>
+        <v>228.9944867940263</v>
       </c>
       <c r="H20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>52.08445763766833</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>214.5019125807964</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L20" t="n">
-        <v>214.5019125807964</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M20" t="n">
-        <v>859.047075846942</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N20" t="n">
-        <v>859.047075846942</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O20" t="n">
-        <v>1503.592239113088</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P20" t="n">
-        <v>2148.137402379233</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q20" t="n">
-        <v>2604.222881883416</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V20" t="n">
-        <v>2604.222881883416</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W20" t="n">
-        <v>2584.947293225893</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X20" t="n">
-        <v>2173.22729439364</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y20" t="n">
-        <v>2173.22729439364</v>
+        <v>1059.31048905672</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>619.2079486691235</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C21" t="n">
-        <v>501.7020451866283</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>397.8620867019134</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>293.1601529748506</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>199.5143226577547</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>105.4605508753587</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J21" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K21" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L21" t="n">
-        <v>571.6817616858872</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M21" t="n">
-        <v>571.6817616858872</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N21" t="n">
-        <v>571.6817616858872</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O21" t="n">
-        <v>1216.226924952033</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P21" t="n">
-        <v>1860.772088218178</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q21" t="n">
-        <v>1860.772088218178</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R21" t="n">
-        <v>1860.772088218178</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S21" t="n">
-        <v>1779.447840779433</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T21" t="n">
-        <v>1637.567905077111</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U21" t="n">
-        <v>1452.799708996748</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V21" t="n">
-        <v>1247.826570136014</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W21" t="n">
-        <v>1051.305192969231</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X21" t="n">
-        <v>887.8278467358939</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y21" t="n">
-        <v>748.1349580891863</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>805.7406014415294</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C22" t="n">
-        <v>633.7680383204454</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D22" t="n">
-        <v>633.7680383204454</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E22" t="n">
-        <v>633.7680383204454</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F22" t="n">
-        <v>461.9062640950058</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="G22" t="n">
-        <v>295.649294389238</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="H22" t="n">
-        <v>151.8530258973924</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="I22" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5757858618263</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K22" t="n">
-        <v>336.1033870676636</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L22" t="n">
-        <v>690.7927083620843</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M22" t="n">
-        <v>1081.978503332335</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N22" t="n">
-        <v>1459.470014208371</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O22" t="n">
-        <v>1814.898142888134</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.497354810035</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q22" t="n">
-        <v>2232.497485050797</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2185.45887173797</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S22" t="n">
-        <v>2015.323824257105</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T22" t="n">
-        <v>1771.984476483005</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U22" t="n">
-        <v>1491.800027983309</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V22" t="n">
-        <v>1210.088560591338</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W22" t="n">
-        <v>935.2361567638507</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X22" t="n">
-        <v>805.7406014415294</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y22" t="n">
-        <v>805.7406014415294</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2354.668813055597</v>
+        <v>1700.695594043987</v>
       </c>
       <c r="C23" t="n">
-        <v>1927.768083068897</v>
+        <v>1273.794864057287</v>
       </c>
       <c r="D23" t="n">
-        <v>1504.475462253897</v>
+        <v>850.5022432422872</v>
       </c>
       <c r="E23" t="n">
-        <v>1078.498522401755</v>
+        <v>424.5253033901448</v>
       </c>
       <c r="F23" t="n">
-        <v>653.3743405911548</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G23" t="n">
-        <v>249.0352781806034</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H23" t="n">
-        <v>123.8933213550238</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I23" t="n">
-        <v>88.99645009849505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>88.99645009849505</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>804.5047580739941</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L23" t="n">
-        <v>1734.129805693271</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M23" t="n">
-        <v>2738.415907112329</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N23" t="n">
-        <v>3714.66696559903</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O23" t="n">
-        <v>4449.822504924752</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P23" t="n">
-        <v>4449.822504924752</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q23" t="n">
-        <v>4449.822504924752</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R23" t="n">
-        <v>4449.822504924752</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>4345.455210797893</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T23" t="n">
-        <v>4345.455210797893</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U23" t="n">
-        <v>4345.455210797893</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V23" t="n">
-        <v>3987.965795924142</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W23" t="n">
-        <v>3591.574446224489</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X23" t="n">
-        <v>3179.854447392237</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="Y23" t="n">
-        <v>2774.517177347127</v>
+        <v>2120.543958335517</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>656.1199411299502</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C24" t="n">
-        <v>538.614037647455</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>434.7740791627401</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>330.0721454356773</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>236.4263151185814</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>142.3725433361855</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>88.99645009849505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>88.99645009849505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>88.99645009849505</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K24" t="n">
-        <v>88.99645009849505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L24" t="n">
-        <v>88.99645009849505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M24" t="n">
-        <v>808.369134206135</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N24" t="n">
-        <v>1897.684080679005</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O24" t="n">
-        <v>1897.684080679005</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P24" t="n">
-        <v>1897.684080679005</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q24" t="n">
-        <v>1897.684080679005</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R24" t="n">
-        <v>1897.684080679005</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S24" t="n">
-        <v>1816.359833240259</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T24" t="n">
-        <v>1674.479897537938</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U24" t="n">
-        <v>1489.711701457574</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V24" t="n">
-        <v>1284.73856259684</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W24" t="n">
-        <v>1088.217185430058</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X24" t="n">
-        <v>924.7398391967206</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y24" t="n">
-        <v>785.046950550013</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3352.59060003586</v>
+        <v>748.3457691779995</v>
       </c>
       <c r="C25" t="n">
-        <v>3180.618036914776</v>
+        <v>748.3457691779995</v>
       </c>
       <c r="D25" t="n">
-        <v>3017.301264041547</v>
+        <v>585.0289963047702</v>
       </c>
       <c r="E25" t="n">
-        <v>2851.093058194401</v>
+        <v>585.0289963047702</v>
       </c>
       <c r="F25" t="n">
-        <v>2679.231283968961</v>
+        <v>413.1672220793306</v>
       </c>
       <c r="G25" t="n">
-        <v>2512.974314263193</v>
+        <v>246.9102523735627</v>
       </c>
       <c r="H25" t="n">
-        <v>2369.178045771348</v>
+        <v>103.1139838817171</v>
       </c>
       <c r="I25" t="n">
-        <v>2269.409477511624</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
-        <v>2326.900805735782</v>
+        <v>101.9895532734056</v>
       </c>
       <c r="K25" t="n">
-        <v>2553.428406941619</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L25" t="n">
-        <v>2908.11772823604</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M25" t="n">
-        <v>3299.303523206291</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N25" t="n">
-        <v>3676.795034082326</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O25" t="n">
-        <v>4032.223162762089</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P25" t="n">
-        <v>4322.82237468399</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q25" t="n">
-        <v>4449.822504924752</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R25" t="n">
-        <v>4449.822504924752</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S25" t="n">
-        <v>4449.822504924752</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T25" t="n">
-        <v>4449.822504924752</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U25" t="n">
-        <v>4169.638056425057</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V25" t="n">
-        <v>3887.926589033086</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W25" t="n">
-        <v>3887.926589033086</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X25" t="n">
-        <v>3645.362692478891</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="Y25" t="n">
-        <v>3419.019924168633</v>
+        <v>748.3457691779995</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>746.7056659857641</v>
+        <v>1355.565386959618</v>
       </c>
       <c r="C26" t="n">
-        <v>746.7056659857641</v>
+        <v>928.6646569729185</v>
       </c>
       <c r="D26" t="n">
-        <v>746.7056659857641</v>
+        <v>505.3720361579187</v>
       </c>
       <c r="E26" t="n">
-        <v>746.7056659857641</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F26" t="n">
-        <v>746.7056659857641</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G26" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L26" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M26" t="n">
-        <v>1145.829295018124</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N26" t="n">
-        <v>1696.494830002562</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O26" t="n">
-        <v>2224.911252462377</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P26" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462377</v>
+        <v>2180.751021296258</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462377</v>
+        <v>2180.751021296258</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462377</v>
+        <v>2180.751021296258</v>
       </c>
       <c r="V26" t="n">
-        <v>1960.15428456278</v>
+        <v>2180.751021296258</v>
       </c>
       <c r="W26" t="n">
-        <v>1563.762934863126</v>
+        <v>2180.751021296258</v>
       </c>
       <c r="X26" t="n">
-        <v>1152.042936030874</v>
+        <v>2180.751021296258</v>
       </c>
       <c r="Y26" t="n">
-        <v>746.7056659857641</v>
+        <v>1775.413751251148</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6293,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K27" t="n">
-        <v>44.49822504924753</v>
+        <v>756.3555336978367</v>
       </c>
       <c r="L27" t="n">
-        <v>44.49822504924753</v>
+        <v>756.3555336978367</v>
       </c>
       <c r="M27" t="n">
-        <v>595.1637600336857</v>
+        <v>756.3555336978367</v>
       </c>
       <c r="N27" t="n">
-        <v>1145.829295018124</v>
+        <v>756.3555336978367</v>
       </c>
       <c r="O27" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P27" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q27" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.314847946798</v>
+        <v>485.7509513926036</v>
       </c>
       <c r="C28" t="n">
-        <v>556.3422848257139</v>
+        <v>313.7783882715196</v>
       </c>
       <c r="D28" t="n">
-        <v>393.0255119524846</v>
+        <v>313.7783882715196</v>
       </c>
       <c r="E28" t="n">
-        <v>226.8173061053382</v>
+        <v>313.7783882715196</v>
       </c>
       <c r="F28" t="n">
-        <v>226.8173061053382</v>
+        <v>313.7783882715196</v>
       </c>
       <c r="G28" t="n">
-        <v>60.56033639957033</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J28" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K28" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L28" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M28" t="n">
         <v>1074.392270743914</v>
@@ -6412,7 +6414,7 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T28" t="n">
-        <v>1981.571904688275</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U28" t="n">
         <v>1701.38745618858</v>
@@ -6424,10 +6426,10 @@
         <v>1144.823584969122</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.823584969122</v>
+        <v>902.2596884149272</v>
       </c>
       <c r="Y28" t="n">
-        <v>918.4808166588637</v>
+        <v>675.9169201046692</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>982.8040871845618</v>
+        <v>946.8148294705827</v>
       </c>
       <c r="C29" t="n">
-        <v>982.8040871845618</v>
+        <v>946.8148294705827</v>
       </c>
       <c r="D29" t="n">
-        <v>559.5114663695621</v>
+        <v>523.522208655583</v>
       </c>
       <c r="E29" t="n">
-        <v>559.5114663695621</v>
+        <v>97.54526880344054</v>
       </c>
       <c r="F29" t="n">
-        <v>559.5114663695621</v>
+        <v>97.54526880344054</v>
       </c>
       <c r="G29" t="n">
-        <v>342.3666035752127</v>
+        <v>97.54526880344054</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K29" t="n">
-        <v>595.1637600336857</v>
+        <v>572.9146475090616</v>
       </c>
       <c r="L29" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M29" t="n">
-        <v>1696.494830002562</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N29" t="n">
-        <v>1696.494830002562</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T29" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U29" t="n">
-        <v>1745.630772103422</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V29" t="n">
-        <v>1388.141357229671</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W29" t="n">
-        <v>1388.141357229671</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X29" t="n">
-        <v>1388.141357229671</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="Y29" t="n">
-        <v>982.8040871845618</v>
+        <v>1366.663193762113</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6530,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K30" t="n">
-        <v>201.1892506764427</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L30" t="n">
-        <v>751.8547856608809</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.520320645319</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N30" t="n">
-        <v>1853.185855629757</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="O30" t="n">
-        <v>1853.185855629757</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P30" t="n">
-        <v>1853.185855629757</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="Q30" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>315.615903911738</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C31" t="n">
-        <v>143.643340790654</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D31" t="n">
-        <v>44.49822504924753</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E31" t="n">
-        <v>44.49822504924753</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F31" t="n">
-        <v>44.49822504924753</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G31" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6646,25 +6648,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T31" t="n">
-        <v>1811.43685720741</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U31" t="n">
-        <v>1531.252408707715</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V31" t="n">
-        <v>1249.540941315744</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="W31" t="n">
-        <v>974.6885374882565</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X31" t="n">
-        <v>732.1246409340616</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y31" t="n">
-        <v>505.7818726238037</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>44.49822504924753</v>
+        <v>896.5231368465472</v>
       </c>
       <c r="C32" t="n">
-        <v>44.49822504924753</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="D32" t="n">
-        <v>44.49822504924753</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="E32" t="n">
-        <v>44.49822504924753</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J32" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K32" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L32" t="n">
-        <v>957.7672188505812</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M32" t="n">
-        <v>1100.603903091853</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N32" t="n">
-        <v>1100.603903091853</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O32" t="n">
-        <v>1100.603903091853</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P32" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U32" t="n">
-        <v>2035.284622791544</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V32" t="n">
-        <v>1677.795207917793</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W32" t="n">
-        <v>1281.40385821814</v>
+        <v>896.5231368465472</v>
       </c>
       <c r="X32" t="n">
-        <v>869.6838593858872</v>
+        <v>896.5231368465472</v>
       </c>
       <c r="Y32" t="n">
-        <v>464.3465893407776</v>
+        <v>896.5231368465472</v>
       </c>
     </row>
     <row r="33">
@@ -6759,46 +6761,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F33" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J33" t="n">
-        <v>316.1957143288386</v>
+        <v>205.6899987133988</v>
       </c>
       <c r="K33" t="n">
-        <v>316.1957143288386</v>
+        <v>205.6899987133988</v>
       </c>
       <c r="L33" t="n">
-        <v>316.1957143288386</v>
+        <v>205.6899987133988</v>
       </c>
       <c r="M33" t="n">
-        <v>866.8612493132769</v>
+        <v>205.6899987133988</v>
       </c>
       <c r="N33" t="n">
-        <v>866.8612493132769</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="O33" t="n">
-        <v>866.8612493132769</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="P33" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q33" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6853,7 +6855,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6889,13 +6891,13 @@
         <v>2224.911252462376</v>
       </c>
       <c r="U34" t="n">
-        <v>2224.911252462376</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.60438497749</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.751981150003</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="X34" t="n">
         <v>1544.188084595808</v>
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1318.891967526989</v>
+        <v>55.81435027937499</v>
       </c>
       <c r="C35" t="n">
-        <v>1318.891967526989</v>
+        <v>55.81435027937499</v>
       </c>
       <c r="D35" t="n">
-        <v>895.5993467119897</v>
+        <v>55.81435027937499</v>
       </c>
       <c r="E35" t="n">
-        <v>469.6224068598473</v>
+        <v>55.81435027937499</v>
       </c>
       <c r="F35" t="n">
-        <v>44.49822504924753</v>
+        <v>55.81435027937499</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924753</v>
+        <v>55.81435027937499</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>55.81435027937499</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K35" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L35" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M35" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N35" t="n">
-        <v>595.1637600336857</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O35" t="n">
-        <v>1145.829295018124</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P35" t="n">
-        <v>1651.269438076291</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V35" t="n">
-        <v>1867.421837588626</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W35" t="n">
-        <v>1471.030487888973</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="X35" t="n">
-        <v>1318.891967526989</v>
+        <v>475.6627145709051</v>
       </c>
       <c r="Y35" t="n">
-        <v>1318.891967526989</v>
+        <v>475.6627145709051</v>
       </c>
     </row>
     <row r="36">
@@ -6996,46 +6998,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F36" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924753</v>
+        <v>602.6104029955973</v>
       </c>
       <c r="L36" t="n">
-        <v>44.49822504924753</v>
+        <v>1153.275937980035</v>
       </c>
       <c r="M36" t="n">
-        <v>287.7093087981016</v>
+        <v>1153.275937980035</v>
       </c>
       <c r="N36" t="n">
-        <v>838.3748437825398</v>
+        <v>1153.275937980035</v>
       </c>
       <c r="O36" t="n">
-        <v>838.3748437825398</v>
+        <v>1153.275937980035</v>
       </c>
       <c r="P36" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q36" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R36" t="n">
         <v>1853.185855629757</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1127.679347573484</v>
+        <v>717.8575411161469</v>
       </c>
       <c r="C37" t="n">
-        <v>955.7067844524004</v>
+        <v>545.8849779950629</v>
       </c>
       <c r="D37" t="n">
-        <v>792.3900115791711</v>
+        <v>382.5682051218336</v>
       </c>
       <c r="E37" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F37" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G37" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H37" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7117,28 +7119,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S37" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T37" t="n">
-        <v>1811.43685720741</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U37" t="n">
-        <v>1811.43685720741</v>
+        <v>1933.494045912124</v>
       </c>
       <c r="V37" t="n">
-        <v>1529.725389815439</v>
+        <v>1651.782578520152</v>
       </c>
       <c r="W37" t="n">
-        <v>1529.725389815439</v>
+        <v>1376.930174692665</v>
       </c>
       <c r="X37" t="n">
-        <v>1529.725389815439</v>
+        <v>1134.366278138471</v>
       </c>
       <c r="Y37" t="n">
-        <v>1317.84531628555</v>
+        <v>908.0235098282126</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1195.244273414055</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="C38" t="n">
-        <v>768.3435434273551</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D38" t="n">
-        <v>768.3435434273551</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E38" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F38" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G38" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L38" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M38" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N38" t="n">
-        <v>595.1637600336857</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O38" t="n">
-        <v>1100.603903091853</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P38" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U38" t="n">
-        <v>1966.556343058789</v>
+        <v>1862.189048931928</v>
       </c>
       <c r="V38" t="n">
-        <v>1609.066928185038</v>
+        <v>1504.699634058178</v>
       </c>
       <c r="W38" t="n">
-        <v>1609.066928185038</v>
+        <v>1281.40385821814</v>
       </c>
       <c r="X38" t="n">
-        <v>1609.066928185038</v>
+        <v>869.6838593858872</v>
       </c>
       <c r="Y38" t="n">
-        <v>1609.066928185038</v>
+        <v>464.3465893407776</v>
       </c>
     </row>
     <row r="39">
@@ -7233,46 +7235,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F39" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K39" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L39" t="n">
-        <v>751.8547856608809</v>
+        <v>119.1699405917402</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.520320645319</v>
+        <v>669.8354755761782</v>
       </c>
       <c r="N39" t="n">
-        <v>1302.520320645319</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O39" t="n">
-        <v>1302.520320645319</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P39" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q39" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R39" t="n">
         <v>1853.185855629757</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1027.91077931376</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C40" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D40" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E40" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F40" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G40" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H40" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J40" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K40" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L40" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M40" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N40" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O40" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P40" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q40" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T40" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U40" t="n">
-        <v>1774.591756481816</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V40" t="n">
-        <v>1774.591756481816</v>
+        <v>1943.199785070404</v>
       </c>
       <c r="W40" t="n">
-        <v>1499.739352654329</v>
+        <v>1668.347381242917</v>
       </c>
       <c r="X40" t="n">
-        <v>1444.419516336084</v>
+        <v>1425.783484688723</v>
       </c>
       <c r="Y40" t="n">
-        <v>1218.076748025826</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>234.1248547200804</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="C41" t="n">
-        <v>234.1248547200804</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="D41" t="n">
-        <v>44.49822504924753</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="E41" t="n">
-        <v>44.49822504924753</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L41" t="n">
-        <v>572.914647509062</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M41" t="n">
-        <v>1123.5801824935</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N41" t="n">
-        <v>1674.245717477938</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O41" t="n">
-        <v>2224.911252462377</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P41" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q41" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462377</v>
+        <v>2055.071534557034</v>
       </c>
       <c r="V41" t="n">
-        <v>1867.421837588626</v>
+        <v>1697.582119683283</v>
       </c>
       <c r="W41" t="n">
-        <v>1471.030487888973</v>
+        <v>1301.19076998363</v>
       </c>
       <c r="X41" t="n">
-        <v>1059.31048905672</v>
+        <v>889.4707711513774</v>
       </c>
       <c r="Y41" t="n">
-        <v>653.9732190116105</v>
+        <v>889.4707711513774</v>
       </c>
     </row>
     <row r="42">
@@ -7470,46 +7472,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F42" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J42" t="n">
-        <v>316.1957143288386</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="K42" t="n">
-        <v>669.8354755761777</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="L42" t="n">
-        <v>669.8354755761777</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="M42" t="n">
-        <v>669.8354755761777</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N42" t="n">
-        <v>669.8354755761777</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O42" t="n">
-        <v>1220.501010560616</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P42" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q42" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>884.1145108219148</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C43" t="n">
-        <v>712.1419477008308</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D43" t="n">
-        <v>548.8251748276015</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E43" t="n">
-        <v>382.616968980455</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F43" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7594,25 +7596,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S43" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T43" t="n">
-        <v>2177.872639149549</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U43" t="n">
-        <v>2099.751015617891</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V43" t="n">
-        <v>1818.03954822592</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W43" t="n">
-        <v>1543.187144398433</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X43" t="n">
-        <v>1300.623247844238</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y43" t="n">
-        <v>1074.28047953398</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1425.751258749807</v>
+        <v>1537.62647837715</v>
       </c>
       <c r="C44" t="n">
-        <v>1346.202606195097</v>
+        <v>1110.72574839045</v>
       </c>
       <c r="D44" t="n">
-        <v>922.9099853800977</v>
+        <v>1110.72574839045</v>
       </c>
       <c r="E44" t="n">
-        <v>496.9330455279553</v>
+        <v>684.7488085383078</v>
       </c>
       <c r="F44" t="n">
-        <v>71.80886371735554</v>
+        <v>259.624626727708</v>
       </c>
       <c r="G44" t="n">
-        <v>71.80886371735554</v>
+        <v>52.54954673343934</v>
       </c>
       <c r="H44" t="n">
-        <v>71.80886371735554</v>
+        <v>52.54954673343934</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>52.54954673343934</v>
       </c>
       <c r="J44" t="n">
-        <v>399.5154512777223</v>
+        <v>490.4500146445652</v>
       </c>
       <c r="K44" t="n">
-        <v>856.3013579804531</v>
+        <v>567.8937577539346</v>
       </c>
       <c r="L44" t="n">
-        <v>856.3013579804531</v>
+        <v>890.7148947339001</v>
       </c>
       <c r="M44" t="n">
-        <v>856.3013579804531</v>
+        <v>1541.015535560212</v>
       </c>
       <c r="N44" t="n">
-        <v>932.7282368344229</v>
+        <v>2191.316176386524</v>
       </c>
       <c r="O44" t="n">
-        <v>932.7282368344229</v>
+        <v>2303.776426036723</v>
       </c>
       <c r="P44" t="n">
-        <v>1389.514143537154</v>
+        <v>2394.152234613756</v>
       </c>
       <c r="Q44" t="n">
-        <v>1845.599623041337</v>
+        <v>2454.19263174025</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="S44" t="n">
-        <v>1845.599623041337</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="T44" t="n">
-        <v>1845.599623041337</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="U44" t="n">
-        <v>1845.599623041337</v>
+        <v>2369.194841500933</v>
       </c>
       <c r="V44" t="n">
-        <v>1845.599623041337</v>
+        <v>2369.194841500933</v>
       </c>
       <c r="W44" t="n">
-        <v>1845.599623041337</v>
+        <v>2369.194841500933</v>
       </c>
       <c r="X44" t="n">
-        <v>1845.599623041337</v>
+        <v>1957.47484266868</v>
       </c>
       <c r="Y44" t="n">
-        <v>1845.599623041337</v>
+        <v>1957.47484266868</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>614.5112820992194</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>497.0053786167242</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>393.1654201320093</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>288.4634864049465</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>194.8176560878507</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>101.2481971827279</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>52.54954673343934</v>
       </c>
       <c r="I45" t="n">
-        <v>36.9119924608267</v>
+        <v>76.33916842548948</v>
       </c>
       <c r="J45" t="n">
-        <v>36.9119924608267</v>
+        <v>100.78054801586</v>
       </c>
       <c r="K45" t="n">
-        <v>36.91199246082674</v>
+        <v>155.2549177192678</v>
       </c>
       <c r="L45" t="n">
-        <v>475.2419029331441</v>
+        <v>236.0298432779762</v>
       </c>
       <c r="M45" t="n">
-        <v>932.027809635875</v>
+        <v>886.330484104288</v>
       </c>
       <c r="N45" t="n">
-        <v>1388.813716338606</v>
+        <v>988.6559556911582</v>
       </c>
       <c r="O45" t="n">
-        <v>1388.813716338606</v>
+        <v>1078.653054569828</v>
       </c>
       <c r="P45" t="n">
-        <v>1845.599623041337</v>
+        <v>1208.867406764147</v>
       </c>
       <c r="Q45" t="n">
-        <v>1845.599623041337</v>
+        <v>1733.604737507429</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.095538917461</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1772.767190756137</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1632.839375817912</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1448.103042426843</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1243.12990356611</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1046.608526399327</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>883.1311801659898</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>743.4382915192822</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.91199246082674</v>
+        <v>1031.946078887644</v>
       </c>
       <c r="C46" t="n">
-        <v>36.91199246082674</v>
+        <v>859.97351576656</v>
       </c>
       <c r="D46" t="n">
-        <v>36.91199246082674</v>
+        <v>696.6567428933307</v>
       </c>
       <c r="E46" t="n">
-        <v>36.91199246082674</v>
+        <v>530.4485370461842</v>
       </c>
       <c r="F46" t="n">
-        <v>36.91199246082674</v>
+        <v>358.5867628207446</v>
       </c>
       <c r="G46" t="n">
-        <v>36.91199246082674</v>
+        <v>192.7358247621587</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082674</v>
+        <v>52.54954673343934</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>52.54954673343934</v>
       </c>
       <c r="J46" t="n">
-        <v>94.40332068498475</v>
+        <v>138.1760543079874</v>
       </c>
       <c r="K46" t="n">
-        <v>320.9309218908219</v>
+        <v>410.9383979720969</v>
       </c>
       <c r="L46" t="n">
-        <v>675.6202431852428</v>
+        <v>824.7922715484102</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.806038155494</v>
+        <v>1278.358791417565</v>
       </c>
       <c r="N46" t="n">
-        <v>1444.297549031529</v>
+        <v>1716.747752982184</v>
       </c>
       <c r="O46" t="n">
-        <v>1799.725677711293</v>
+        <v>2128.424533910869</v>
       </c>
       <c r="P46" t="n">
-        <v>1799.725677711293</v>
+        <v>2467.154185086671</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="S46" t="n">
-        <v>1776.072293530599</v>
+        <v>2464.418313442444</v>
       </c>
       <c r="T46" t="n">
-        <v>1532.732945756499</v>
+        <v>2246.03341761059</v>
       </c>
       <c r="U46" t="n">
-        <v>1252.548497256803</v>
+        <v>1965.87111629165</v>
       </c>
       <c r="V46" t="n">
-        <v>970.8370298648322</v>
+        <v>1965.87111629165</v>
       </c>
       <c r="W46" t="n">
-        <v>695.9846260373453</v>
+        <v>1691.018712464162</v>
       </c>
       <c r="X46" t="n">
-        <v>453.4207294831504</v>
+        <v>1448.454815909968</v>
       </c>
       <c r="Y46" t="n">
-        <v>227.0779611728924</v>
+        <v>1222.11204759971</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L2" t="n">
-        <v>572.0660045132433</v>
+        <v>453.3222319052608</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N2" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8000,7 +8002,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>458.8548577776432</v>
+        <v>184.5908146029612</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>547.8252218830993</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>110.6369203512731</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,19 +8300,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>549.9687528290794</v>
       </c>
       <c r="M6" t="n">
-        <v>550.5504466271776</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517276</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>452.4414523720699</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>300.4142109955938</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,22 +8531,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>549.8528999481832</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M9" t="n">
-        <v>185.9167539104601</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8553,7 +8555,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517276</v>
       </c>
       <c r="K10" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150259</v>
+        <v>547.976861948085</v>
       </c>
       <c r="N11" t="n">
-        <v>593.5074359500402</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P11" t="n">
-        <v>86.31943126580316</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8766,31 +8768,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>465.9489063640447</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>181.020801548772</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517276</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L14" t="n">
-        <v>572.0660045132436</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>181.8548408418183</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,25 +9005,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>181.4456529820153</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>461.830509216993</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L17" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>571.1852249800525</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498009</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9237,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L18" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>176.6411400339852</v>
+        <v>179.6167914733353</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>199.8226360908984</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L20" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>688.4869833702859</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N20" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>688.4466798268782</v>
+        <v>86.13502881159596</v>
       </c>
       <c r="P20" t="n">
-        <v>688.6310822810854</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,19 +9485,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>547.3608483790971</v>
+        <v>180.7888499740227</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O21" t="n">
-        <v>674.2276101930763</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P21" t="n">
-        <v>672.8265616756828</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>779.9723122102889</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150259</v>
+        <v>300.4545145390015</v>
       </c>
       <c r="N26" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>571.1449214366446</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9951,31 +9953,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>467.0051119838364</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P27" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,19 +10114,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>591.9924139104035</v>
+        <v>569.5185628754297</v>
       </c>
       <c r="L29" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O29" t="n">
-        <v>571.1449214366446</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
         <v>37.5753618102313</v>
@@ -10188,31 +10190,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>579.3245936279221</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N30" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>379.9589183367962</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10276,7 +10278,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>417.712606528103</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L32" t="n">
-        <v>594.539855548217</v>
+        <v>453.3222319052608</v>
       </c>
       <c r="M32" t="n">
-        <v>181.710741931019</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P32" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10425,7 +10427,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>183.431087731466</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10434,22 +10436,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>549.2245073196783</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,25 +10588,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O35" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>548.1209608588846</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>451.1348640772358</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M36" t="n">
-        <v>268.7645418748068</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>577.9986543204228</v>
+        <v>177.0689530252726</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,25 +10828,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O38" t="n">
-        <v>547.9365584046775</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>593.8031749258255</v>
+        <v>110.6369203512729</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10904,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>180.7888499740228</v>
+        <v>97.94106200967673</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P39" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>572.0660045132436</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N41" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O41" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>181.854840841818</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>178.8848775931272</v>
       </c>
       <c r="K42" t="n">
-        <v>379.6111138811506</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O42" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P42" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>497.1645065551435</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>222.9785750572458</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>536.9486901204622</v>
       </c>
       <c r="N44" t="n">
-        <v>114.4784903637085</v>
+        <v>534.2509316947205</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>498.9752675705655</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>465.2725720398026</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>484.4966862726622</v>
+        <v>558.4794156852623</v>
       </c>
       <c r="N45" t="n">
-        <v>482.7429339738759</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651629</v>
+        <v>61.7427972972998</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11470,10 +11472,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.95688127998122</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22550,16 +22552,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>320.2703576936867</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22598,19 +22600,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>30.98595187168894</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,7 +22707,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -22720,10 +22722,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>19.29091348988686</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.6172179931338491</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22784,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>298.2877505002059</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>341.6181830358607</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -22844,13 +22846,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22942,22 +22944,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>19.29091348988686</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23018,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>235.6007217807226</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23072,22 +23074,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>47.04395140009274</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>165.7641609568363</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23258,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>277.710482294158</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23318,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>333.7499474520716</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>165.7641609568368</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>214.7907073229449</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,10 +23557,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>355.0277088474713</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>228.1651241854354</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23786,19 +23788,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>112.3596550292944</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23896,19 +23898,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>68.10191868181128</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>5.248697164950812</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>112.2383956133745</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24026,10 +24028,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>373.3446034317085</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>111.9376578195549</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24215,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>44.64613243500548</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>170.9991574833817</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,16 +24265,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.4992781335004</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>40.74128133298188</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>59.60499233113404</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
@@ -24500,13 +24502,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>91.80512250441205</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.1362268027148</v>
       </c>
       <c r="H28" t="n">
-        <v>126.4568155701076</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -24686,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>185.32225762004</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>276.9210239680179</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>63.52994056050457</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>214.2564536940932</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24926,7 +24928,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>68.04099693542724</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>9.049019208955542</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25129,16 +25131,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>122.4992781335012</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -25172,7 +25174,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>23.3449385661373</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25217,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>256.9856636855666</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>35.44779670964772</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.31806783256513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.965452425341311</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25406,7 +25408,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -25451,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>171.3646181210192</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>185.3716196335905</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>117.2205539080146</v>
       </c>
     </row>
     <row r="41">
@@ -25631,13 +25633,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>231.3293312327252</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -25682,7 +25684,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>87.63003958326345</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>200.0421967183579</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>343.8785566576706</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>194.3952164642692</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25928,7 +25930,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S46" t="n">
-        <v>99.60164079042598</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>22.9873935552437</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>483737.0677648336</v>
+        <v>483737.0677648337</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>483737.0677648337</v>
+        <v>483737.0677648336</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>483737.0677648337</v>
+        <v>483737.0677648336</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>525569.4477580515</v>
+        <v>483737.0677648337</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>729111.387308514</v>
+        <v>483737.0677648336</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>483737.0677648336</v>
+        <v>483737.0677648337</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>483737.0677648337</v>
+        <v>483737.0677648336</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>483737.0677648337</v>
+        <v>483737.0677648336</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>429291.9098842136</v>
+        <v>530386.0753656642</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>160941.581932267</v>
       </c>
       <c r="C2" t="n">
-        <v>160941.581932267</v>
+        <v>160941.5819322669</v>
       </c>
       <c r="D2" t="n">
         <v>160941.581932267</v>
@@ -26326,16 +26328,16 @@
         <v>160941.581932267</v>
       </c>
       <c r="G2" t="n">
+        <v>160941.5819322671</v>
+      </c>
+      <c r="H2" t="n">
         <v>160941.581932267</v>
       </c>
-      <c r="H2" t="n">
-        <v>174855.969813966</v>
-      </c>
       <c r="I2" t="n">
-        <v>242558.5843330924</v>
+        <v>160941.5819322669</v>
       </c>
       <c r="J2" t="n">
-        <v>160941.581932267</v>
+        <v>160941.5819322669</v>
       </c>
       <c r="K2" t="n">
         <v>160941.581932267</v>
@@ -26344,7 +26346,7 @@
         <v>160941.581932267</v>
       </c>
       <c r="M2" t="n">
-        <v>160941.581932267</v>
+        <v>160941.5819322669</v>
       </c>
       <c r="N2" t="n">
         <v>160941.581932267</v>
@@ -26353,7 +26355,7 @@
         <v>160941.5819322669</v>
       </c>
       <c r="P2" t="n">
-        <v>142831.9012219151</v>
+        <v>183260.6469238934</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>122695.9243396938</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>172153.4997602383</v>
       </c>
     </row>
     <row r="4">
@@ -26430,13 +26432,13 @@
         <v>52194.43267059494</v>
       </c>
       <c r="G4" t="n">
+        <v>52194.43267059494</v>
+      </c>
+      <c r="H4" t="n">
+        <v>52194.43267059494</v>
+      </c>
+      <c r="I4" t="n">
         <v>52194.43267059495</v>
-      </c>
-      <c r="H4" t="n">
-        <v>56722.49858025483</v>
-      </c>
-      <c r="I4" t="n">
-        <v>78754.50626936855</v>
       </c>
       <c r="J4" t="n">
         <v>52194.43267059494</v>
@@ -26448,16 +26450,16 @@
         <v>52194.43267059494</v>
       </c>
       <c r="M4" t="n">
-        <v>52194.43267059495</v>
+        <v>52194.43267059493</v>
       </c>
       <c r="N4" t="n">
-        <v>52194.43267059495</v>
+        <v>52194.43267059494</v>
       </c>
       <c r="O4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059493</v>
       </c>
       <c r="P4" t="n">
-        <v>46301.12075802253</v>
+        <v>38995.26096811709</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="E5" t="n">
+        <v>33818.65103742811</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33818.65103742811</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33818.65103742811</v>
+      </c>
+      <c r="H5" t="n">
         <v>33818.65103742812</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>33818.65103742812</v>
       </c>
-      <c r="G5" t="n">
-        <v>33818.65103742812</v>
-      </c>
-      <c r="H5" t="n">
-        <v>39584.18780462793</v>
-      </c>
-      <c r="I5" t="n">
-        <v>67637.30207485623</v>
-      </c>
       <c r="J5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>44797.12347721619</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-145103.8351904932</v>
+        <v>-145103.8351904933</v>
       </c>
       <c r="C6" t="n">
-        <v>41300.89822424392</v>
+        <v>41300.89822424388</v>
       </c>
       <c r="D6" t="n">
-        <v>41300.89822424395</v>
+        <v>41300.89822424394</v>
       </c>
       <c r="E6" t="n">
-        <v>74928.49822424393</v>
+        <v>74928.49822424394</v>
       </c>
       <c r="F6" t="n">
         <v>74928.49822424393</v>
       </c>
       <c r="G6" t="n">
-        <v>74928.49822424396</v>
+        <v>74928.498224244</v>
       </c>
       <c r="H6" t="n">
-        <v>52963.86057346789</v>
+        <v>74928.49822424391</v>
       </c>
       <c r="I6" t="n">
-        <v>-26529.14835082612</v>
+        <v>74928.49822424387</v>
       </c>
       <c r="J6" t="n">
+        <v>-70605.17171057258</v>
+      </c>
+      <c r="K6" t="n">
+        <v>74928.49822424399</v>
+      </c>
+      <c r="L6" t="n">
+        <v>74928.49822424399</v>
+      </c>
+      <c r="M6" t="n">
+        <v>74928.49822424391</v>
+      </c>
+      <c r="N6" t="n">
         <v>74928.49822424393</v>
       </c>
-      <c r="K6" t="n">
-        <v>74928.49822424393</v>
-      </c>
-      <c r="L6" t="n">
-        <v>74928.49822424396</v>
-      </c>
-      <c r="M6" t="n">
-        <v>74928.4982242439</v>
-      </c>
-      <c r="N6" t="n">
-        <v>74928.49822424396</v>
-      </c>
       <c r="O6" t="n">
-        <v>74928.49822424389</v>
+        <v>74928.49822424391</v>
       </c>
       <c r="P6" t="n">
-        <v>68477.66619366431</v>
+        <v>-72685.2372816781</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>222.9113743028576</v>
       </c>
     </row>
     <row r="4">
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>556.227813115594</v>
+      </c>
+      <c r="C4" t="n">
+        <v>556.227813115594</v>
+      </c>
+      <c r="D4" t="n">
+        <v>556.227813115594</v>
+      </c>
+      <c r="E4" t="n">
+        <v>556.227813115594</v>
+      </c>
+      <c r="F4" t="n">
+        <v>556.227813115594</v>
+      </c>
+      <c r="G4" t="n">
+        <v>556.227813115594</v>
+      </c>
+      <c r="H4" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="I4" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="J4" t="n">
+        <v>556.227813115594</v>
+      </c>
+      <c r="K4" t="n">
+        <v>556.227813115594</v>
+      </c>
+      <c r="L4" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="C4" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="D4" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="E4" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="F4" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="G4" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="H4" t="n">
-        <v>651.0557204708541</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1112.455626231188</v>
-      </c>
-      <c r="J4" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="K4" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="L4" t="n">
-        <v>556.2278131155941</v>
-      </c>
       <c r="M4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>656.8693341679917</v>
       </c>
     </row>
   </sheetData>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>222.9113743028576</v>
       </c>
     </row>
     <row r="4">
@@ -27009,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>556.227813115594</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>94.82790735525992</v>
-      </c>
-      <c r="I4" t="n">
-        <v>461.3999057603339</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>100.6415210523978</v>
       </c>
     </row>
   </sheetData>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.8961261278506832</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.177451706850812</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>76.057584943667</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>113.9906039355864</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>141.4154239207968</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>157.3519069469614</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>159.8980253077172</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>150.9871711239019</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>128.8640573425882</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>96.77154038893555</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>56.29128287860053</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>20.42047413839747</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>3.922792124666368</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.07169009022805464</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.4794697485004862</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>4.630668360517855</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>16.50805932337201</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>45.29937654582884</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>77.42384969536141</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>104.1059206119148</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>121.4866989950574</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>124.7020904225015</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>114.0780502057275</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>91.55769258865865</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>61.20389280858839</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.76918315689862</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>8.905940284647183</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.932599556455907</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.03154406240134779</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.4019713307100711</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.573890558494998</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>12.08837419989923</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>28.41937308120202</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>46.70176005886098</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>59.76217402211368</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>63.01083323121595</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>61.51257645311483</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>56.81682045345625</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>48.61660530697076</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>33.6596175197315</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.07409274265465</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>7.005264008829146</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.717513867579394</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.02192570894782209</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L2" t="n">
-        <v>533.7539620806205</v>
+        <v>415.0101894726379</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>437.0840165728146</v>
+        <v>162.8199733981326</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>73.06155854104179</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="M6" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127089</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>415.0101894726381</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395697</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M9" t="n">
-        <v>162.8199733981322</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127089</v>
       </c>
       <c r="K10" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486532</v>
       </c>
       <c r="N11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P11" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>444.605878150503</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>158.2737632597935</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127089</v>
       </c>
       <c r="K13" t="n">
         <v>228.8157587937749</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L14" t="n">
-        <v>533.7539620806207</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>144.279479031587</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>158.2737632597931</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>263.0232516395696</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>155.2981118204435</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>164.058035296089</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>651.0557204708541</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>651.0557204708541</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="P20" t="n">
-        <v>651.0557204708541</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>524.8457616648675</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O21" t="n">
-        <v>651.0557204708541</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P21" t="n">
-        <v>651.0557204708541</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>742.5813528542649</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M26" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395697</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>444.6058781505031</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P27" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,19 +36834,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="L29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O29" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>357.2118800478177</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,7 +36998,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M31" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366172</v>
       </c>
       <c r="N31" t="n">
         <v>381.3045564404402</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L32" t="n">
-        <v>556.2278131155941</v>
+        <v>415.0101894726379</v>
       </c>
       <c r="M32" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>162.8199733981326</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>527.4536661148496</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M36" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>556.2278131155941</v>
+        <v>155.2981118204439</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O38" t="n">
-        <v>510.5455990486534</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>556.2278131155941</v>
+        <v>73.06155854104156</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>158.2737632597932</v>
+        <v>75.42597529544717</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="K42" t="n">
-        <v>357.2118800478173</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K44" t="n">
-        <v>461.3999057603342</v>
+        <v>78.22600314077711</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>326.0819565454198</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>656.8693341679917</v>
       </c>
       <c r="N44" t="n">
-        <v>77.19886752926243</v>
+        <v>656.8693341679917</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>113.5962117678778</v>
       </c>
       <c r="P44" t="n">
-        <v>461.3999057603342</v>
+        <v>91.28869553235688</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>60.64686578433751</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>24.68826221249551</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>55.02461586202807</v>
       </c>
       <c r="L45" t="n">
-        <v>442.7574853255731</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M45" t="n">
-        <v>461.3999057603342</v>
+        <v>656.8693341679917</v>
       </c>
       <c r="N45" t="n">
-        <v>461.3999057603342</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603342</v>
+        <v>131.5296486811298</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127072</v>
+        <v>86.49142179247275</v>
       </c>
       <c r="K46" t="n">
-        <v>228.8157587937749</v>
+        <v>275.5175188526359</v>
       </c>
       <c r="L46" t="n">
-        <v>358.2720417115361</v>
+        <v>418.0342157336498</v>
       </c>
       <c r="M46" t="n">
-        <v>395.137166636617</v>
+        <v>458.1479998678329</v>
       </c>
       <c r="N46" t="n">
-        <v>381.3045564404402</v>
+        <v>442.817132893555</v>
       </c>
       <c r="O46" t="n">
-        <v>359.0183117977405</v>
+        <v>415.8351322511967</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>342.1511628038405</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.33731851519627</v>
+        <v>161.942577358885</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284759.1683802761</v>
+        <v>279390.4610848788</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18822641.55253906</v>
+        <v>18601640.52608541</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9018216.924231078</v>
+        <v>9135685.687344901</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5620449.819626645</v>
+        <v>5593511.180098801</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>391.0096799833398</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>322.9285688533241</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>62.75529584269318</v>
       </c>
       <c r="I4" t="n">
-        <v>98.15366458399293</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>58.67748875058511</v>
+        <v>173.3836466157051</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>125.7111468176095</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.0491588678921</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>278.2706782195845</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,10 +1293,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>139.7743500719403</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>153.2017273756979</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>58.67748875058492</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348374</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971666</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>37.39972735518523</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>159.0998003904942</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1855,16 +1855,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>143.4117052802574</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>241.9095302899769</v>
       </c>
     </row>
     <row r="18">
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>235.6572571314082</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.2771347249172</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>390.3411791671791</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>182.651299127331</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>51.58543740429392</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>376.2268075574883</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>53.09658924790577</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>58.0296012441449</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>238.5792768260961</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>43.71862885445695</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>208.0459955848482</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>25.45817320599537</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2794,13 +2794,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>17.96867077268757</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>55.19886611923189</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3009,10 +3009,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>57.84742609511886</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>218.7163152458132</v>
@@ -3091,13 +3091,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>383.378416993701</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>242.5938981288117</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3249,10 +3249,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>117.6389794551517</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>324.7411038614875</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>11.2029639778262</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -3438,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>241.934807305051</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>154.1156291734922</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>117.5061252454943</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>221.0628180816374</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>106.8587867191408</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>168.1413207262884</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>53.09658924790577</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>104.7223743992572</v>
       </c>
       <c r="G44" t="n">
-        <v>205.004329194326</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6996702193238</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>92.63376431607153</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H45" t="n">
-        <v>48.21166394479565</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>71.60506467971084</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T45" t="n">
-        <v>138.5285367888426</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U45" t="n">
-        <v>182.8889700571583</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -4140,19 +4140,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.7844152484321</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>216.2010468735359</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3606783057509</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.49822504924752</v>
+        <v>1197.346929352786</v>
       </c>
       <c r="C2" t="n">
-        <v>44.49822504924752</v>
+        <v>1197.346929352786</v>
       </c>
       <c r="D2" t="n">
-        <v>44.49822504924752</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="E2" t="n">
-        <v>44.49822504924752</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336855</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L2" t="n">
-        <v>1006.023847611597</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M2" t="n">
-        <v>1556.689382596035</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.985681507009</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2003.985681507009</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V2" t="n">
-        <v>1677.795207917793</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W2" t="n">
-        <v>1281.40385821814</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X2" t="n">
-        <v>869.6838593858872</v>
+        <v>1197.346929352786</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.3465893407776</v>
+        <v>1197.346929352786</v>
       </c>
     </row>
     <row r="3">
@@ -4397,40 +4397,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924752</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336855</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M3" t="n">
-        <v>595.1637600336855</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N3" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O3" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315.6159039117385</v>
+        <v>712.093719702862</v>
       </c>
       <c r="C4" t="n">
-        <v>143.6433407906545</v>
+        <v>540.121156581778</v>
       </c>
       <c r="D4" t="n">
-        <v>143.6433407906545</v>
+        <v>540.121156581778</v>
       </c>
       <c r="E4" t="n">
-        <v>143.6433407906545</v>
+        <v>373.9129507346315</v>
       </c>
       <c r="F4" t="n">
-        <v>143.6433407906545</v>
+        <v>373.9129507346315</v>
       </c>
       <c r="G4" t="n">
-        <v>143.6433407906545</v>
+        <v>207.6559810288637</v>
       </c>
       <c r="H4" t="n">
-        <v>143.6433407906545</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
@@ -4497,7 +4497,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
@@ -4509,31 +4509,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1811.436857207411</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>1531.252408707715</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V4" t="n">
-        <v>1249.540941315744</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W4" t="n">
-        <v>974.688537488257</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X4" t="n">
-        <v>732.1246409340621</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y4" t="n">
-        <v>505.7818726238041</v>
+        <v>902.2596884149276</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1805.062888170846</v>
+        <v>1068.050024256367</v>
       </c>
       <c r="C5" t="n">
-        <v>1378.162158184146</v>
+        <v>1068.050024256367</v>
       </c>
       <c r="D5" t="n">
-        <v>954.8695373691464</v>
+        <v>644.7574034413676</v>
       </c>
       <c r="E5" t="n">
-        <v>528.892597517004</v>
+        <v>644.7574034413676</v>
       </c>
       <c r="F5" t="n">
-        <v>103.7684157064042</v>
+        <v>219.6332216307678</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336855</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1651.26943807629</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X5" t="n">
-        <v>2224.911252462376</v>
+        <v>1487.898388547897</v>
       </c>
       <c r="Y5" t="n">
-        <v>2224.911252462376</v>
+        <v>1487.898388547897</v>
       </c>
     </row>
     <row r="6">
@@ -4634,40 +4634,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>838.3748437825399</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M6" t="n">
-        <v>838.3748437825399</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825399</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825399</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>675.9169201046697</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>503.9443569835856</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>376.9634006021619</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734057</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
         <v>1074.392270743914</v>
@@ -4746,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462376</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V7" t="n">
-        <v>2061.60438497749</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>746.7056659857641</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="C8" t="n">
-        <v>746.7056659857641</v>
+        <v>1472.71765739345</v>
       </c>
       <c r="D8" t="n">
-        <v>746.7056659857641</v>
+        <v>1049.425036578451</v>
       </c>
       <c r="E8" t="n">
-        <v>746.7056659857641</v>
+        <v>623.4480967263081</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>623.4480967263081</v>
       </c>
       <c r="G8" t="n">
         <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505811</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505811</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505811</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N8" t="n">
-        <v>957.7672188505811</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
         <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958193</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.985681507009</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1745.630772103422</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1745.630772103422</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W8" t="n">
-        <v>1745.630772103422</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X8" t="n">
-        <v>1333.910773271169</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="Y8" t="n">
-        <v>928.5735032260592</v>
+        <v>1899.61838738015</v>
       </c>
     </row>
     <row r="9">
@@ -4871,40 +4871,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>838.3748437825399</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>1389.040378766978</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>1389.040378766978</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1389.040378766978</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1389.040378766978</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>101.9895532734057</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
         <v>1074.392270743914</v>
@@ -4983,31 +4983,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1774.591756481816</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1492.880289089845</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>1351.694076895966</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>1109.130180341771</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>882.7874120315128</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1745.792697513689</v>
+        <v>927.8118989313758</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.891967526989</v>
+        <v>927.8118989313758</v>
       </c>
       <c r="D11" t="n">
-        <v>895.5993467119897</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="E11" t="n">
-        <v>469.6224068598473</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L11" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M11" t="n">
-        <v>549.9383681074142</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N11" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O11" t="n">
-        <v>1651.26943807629</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P11" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W11" t="n">
-        <v>2165.64106180522</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X11" t="n">
-        <v>2165.64106180522</v>
+        <v>1487.898388547897</v>
       </c>
       <c r="Y11" t="n">
-        <v>2165.64106180522</v>
+        <v>1082.561118502788</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K12" t="n">
-        <v>595.1637600336855</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L12" t="n">
-        <v>1145.829295018124</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M12" t="n">
-        <v>1145.829295018124</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N12" t="n">
-        <v>1145.829295018124</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O12" t="n">
-        <v>1696.494830002562</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P12" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q12" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R12" t="n">
         <v>1853.185855629757</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>458.7432593109774</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C13" t="n">
-        <v>458.7432593109774</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D13" t="n">
-        <v>458.7432593109774</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E13" t="n">
-        <v>458.7432593109774</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J13" t="n">
-        <v>101.9895532734057</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K13" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L13" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M13" t="n">
         <v>1074.392270743914</v>
@@ -5223,28 +5223,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V13" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W13" t="n">
-        <v>927.6499241754302</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X13" t="n">
-        <v>685.0860276212353</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y13" t="n">
-        <v>458.7432593109774</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1355.565386959618</v>
+        <v>932.2727661446186</v>
       </c>
       <c r="C14" t="n">
-        <v>928.6646569729185</v>
+        <v>505.3720361579187</v>
       </c>
       <c r="D14" t="n">
         <v>505.3720361579187</v>
@@ -5275,55 +5275,55 @@
         <v>79.39509630577632</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>957.7672188505811</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L14" t="n">
-        <v>1508.432753835019</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M14" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N14" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O14" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P14" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462376</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W14" t="n">
-        <v>2187.133750083401</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="X14" t="n">
-        <v>1775.413751251148</v>
+        <v>1092.979635225926</v>
       </c>
       <c r="Y14" t="n">
-        <v>1775.413751251148</v>
+        <v>932.2727661446186</v>
       </c>
     </row>
     <row r="15">
@@ -5345,40 +5345,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L15" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M15" t="n">
-        <v>866.8612493132766</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N15" t="n">
-        <v>866.8612493132766</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O15" t="n">
-        <v>1417.526784297715</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P15" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127.679347573484</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524004</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D16" t="n">
-        <v>792.3900115791711</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5463,25 +5463,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V16" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X16" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y16" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>897.3758948880899</v>
+        <v>1655.265326481184</v>
       </c>
       <c r="C17" t="n">
-        <v>470.47516490139</v>
+        <v>1228.364596494484</v>
       </c>
       <c r="D17" t="n">
-        <v>470.47516490139</v>
+        <v>1228.364596494484</v>
       </c>
       <c r="E17" t="n">
-        <v>44.49822504924752</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K17" t="n">
-        <v>957.7672188505811</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L17" t="n">
-        <v>957.7672188505811</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M17" t="n">
-        <v>957.7672188505811</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N17" t="n">
-        <v>957.7672188505811</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O17" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P17" t="n">
-        <v>1768.825772958193</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U17" t="n">
-        <v>2080.05094409848</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V17" t="n">
-        <v>1722.561529224729</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W17" t="n">
-        <v>1722.561529224729</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X17" t="n">
-        <v>1722.561529224729</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="Y17" t="n">
-        <v>1317.22425917962</v>
+        <v>1655.265326481184</v>
       </c>
     </row>
     <row r="18">
@@ -5582,40 +5582,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>595.1637600336855</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L18" t="n">
-        <v>595.1637600336855</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M18" t="n">
-        <v>595.1637600336855</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N18" t="n">
-        <v>751.8547856608812</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O18" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P18" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q18" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R18" t="n">
         <v>1853.185855629757</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>798.1543688531086</v>
+        <v>316.2393564300555</v>
       </c>
       <c r="C19" t="n">
-        <v>626.1818057320246</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D19" t="n">
-        <v>626.1818057320246</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E19" t="n">
-        <v>626.1818057320246</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F19" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G19" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H19" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5697,28 +5697,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S19" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T19" t="n">
-        <v>1769.699958202615</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U19" t="n">
-        <v>1489.515509702919</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.515509702919</v>
+        <v>1250.164393834061</v>
       </c>
       <c r="W19" t="n">
-        <v>1214.663105875432</v>
+        <v>975.3119900065741</v>
       </c>
       <c r="X19" t="n">
-        <v>1214.663105875432</v>
+        <v>732.7480934523792</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.3203375651742</v>
+        <v>506.4053251421212</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1059.31048905672</v>
+        <v>1288.975595211734</v>
       </c>
       <c r="C20" t="n">
-        <v>1059.31048905672</v>
+        <v>862.0748652250343</v>
       </c>
       <c r="D20" t="n">
-        <v>1059.31048905672</v>
+        <v>438.7822444100345</v>
       </c>
       <c r="E20" t="n">
-        <v>633.3335492045777</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F20" t="n">
-        <v>633.3335492045777</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G20" t="n">
-        <v>228.9944867940263</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H20" t="n">
         <v>44.49822504924753</v>
@@ -5752,52 +5752,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K20" t="n">
-        <v>957.7672188505812</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L20" t="n">
-        <v>957.7672188505812</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M20" t="n">
-        <v>1508.432753835019</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N20" t="n">
-        <v>1508.432753835019</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O20" t="n">
-        <v>1556.689382596036</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P20" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R20" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V20" t="n">
-        <v>1867.421837588626</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W20" t="n">
-        <v>1471.030487888973</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X20" t="n">
-        <v>1059.31048905672</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y20" t="n">
-        <v>1059.31048905672</v>
+        <v>1708.823959503264</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L21" t="n">
-        <v>201.1892506764427</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M21" t="n">
-        <v>751.8547856608809</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N21" t="n">
-        <v>1302.520320645319</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O21" t="n">
         <v>1853.185855629757</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>268.5772905989112</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C22" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D22" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E22" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F22" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G22" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
         <v>44.49822504924753</v>
@@ -5934,28 +5934,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U22" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V22" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W22" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X22" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y22" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1700.695594043987</v>
+        <v>1230.141144670584</v>
       </c>
       <c r="C23" t="n">
-        <v>1273.794864057287</v>
+        <v>803.240414683884</v>
       </c>
       <c r="D23" t="n">
-        <v>850.5022432422872</v>
+        <v>803.240414683884</v>
       </c>
       <c r="E23" t="n">
-        <v>424.5253033901448</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F23" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I23" t="n">
         <v>44.49822504924753</v>
@@ -5992,25 +5992,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="L23" t="n">
         <v>957.7672188505812</v>
       </c>
-      <c r="L23" t="n">
-        <v>1100.603903091853</v>
-      </c>
       <c r="M23" t="n">
-        <v>1100.603903091853</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N23" t="n">
-        <v>1100.603903091853</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O23" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P23" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R23" t="n">
         <v>2224.911252462377</v>
@@ -6019,22 +6019,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T23" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U23" t="n">
-        <v>2120.543958335517</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V23" t="n">
-        <v>2120.543958335517</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W23" t="n">
-        <v>2120.543958335517</v>
+        <v>1230.141144670584</v>
       </c>
       <c r="X23" t="n">
-        <v>2120.543958335517</v>
+        <v>1230.141144670584</v>
       </c>
       <c r="Y23" t="n">
-        <v>2120.543958335517</v>
+        <v>1230.141144670584</v>
       </c>
     </row>
     <row r="24">
@@ -6083,7 +6083,7 @@
         <v>874.3078922751886</v>
       </c>
       <c r="O24" t="n">
-        <v>874.3078922751886</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P24" t="n">
         <v>1307.021068682275</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>748.3457691779995</v>
+        <v>488.1011306554951</v>
       </c>
       <c r="C25" t="n">
-        <v>748.3457691779995</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="D25" t="n">
-        <v>585.0289963047702</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="E25" t="n">
-        <v>585.0289963047702</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F25" t="n">
-        <v>413.1672220793306</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G25" t="n">
-        <v>246.9102523735627</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H25" t="n">
-        <v>103.1139838817171</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I25" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
-        <v>101.9895532734056</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K25" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L25" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N25" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O25" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P25" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q25" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T25" t="n">
-        <v>1811.436857207411</v>
+        <v>1983.922083951167</v>
       </c>
       <c r="U25" t="n">
-        <v>1531.252408707716</v>
+        <v>1703.737635451472</v>
       </c>
       <c r="V25" t="n">
-        <v>1249.540941315744</v>
+        <v>1422.026168059501</v>
       </c>
       <c r="W25" t="n">
-        <v>974.6885374882575</v>
+        <v>1147.173764232014</v>
       </c>
       <c r="X25" t="n">
-        <v>974.6885374882575</v>
+        <v>904.6098676778188</v>
       </c>
       <c r="Y25" t="n">
-        <v>748.3457691779995</v>
+        <v>678.2670993675608</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1355.565386959618</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="C26" t="n">
-        <v>928.6646569729185</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D26" t="n">
-        <v>505.3720361579187</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E26" t="n">
-        <v>79.39509630577632</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F26" t="n">
-        <v>79.39509630577632</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G26" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H26" t="n">
         <v>79.39509630577632</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L26" t="n">
-        <v>957.7672188505811</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M26" t="n">
-        <v>1218.160237973755</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.160237973755</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O26" t="n">
-        <v>1218.160237973755</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P26" t="n">
-        <v>1768.825772958193</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2180.751021296258</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T26" t="n">
-        <v>2180.751021296258</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U26" t="n">
-        <v>2180.751021296258</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V26" t="n">
-        <v>2180.751021296258</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W26" t="n">
-        <v>2180.751021296258</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X26" t="n">
-        <v>2180.751021296258</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="Y26" t="n">
-        <v>1775.413751251148</v>
+        <v>781.6025372422929</v>
       </c>
     </row>
     <row r="27">
@@ -6293,31 +6293,31 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>756.3555336978367</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L27" t="n">
-        <v>756.3555336978367</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M27" t="n">
-        <v>756.3555336978367</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N27" t="n">
-        <v>756.3555336978367</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O27" t="n">
         <v>1307.021068682275</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>485.7509513926036</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C28" t="n">
-        <v>313.7783882715196</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D28" t="n">
-        <v>313.7783882715196</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E28" t="n">
-        <v>313.7783882715196</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F28" t="n">
-        <v>313.7783882715196</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G28" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J28" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K28" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L28" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M28" t="n">
         <v>1074.392270743914</v>
@@ -6411,25 +6411,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T28" t="n">
-        <v>1981.571904688276</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U28" t="n">
-        <v>1701.38745618858</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V28" t="n">
-        <v>1419.675988796609</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.823584969122</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X28" t="n">
-        <v>902.2596884149272</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y28" t="n">
-        <v>675.9169201046692</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>946.8148294705827</v>
+        <v>769.2673335619127</v>
       </c>
       <c r="C29" t="n">
-        <v>946.8148294705827</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="D29" t="n">
-        <v>523.522208655583</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E29" t="n">
-        <v>97.54526880344054</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F29" t="n">
-        <v>97.54526880344054</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G29" t="n">
-        <v>97.54526880344054</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H29" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>572.9146475090616</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L29" t="n">
-        <v>1123.5801824935</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M29" t="n">
-        <v>1674.245717477938</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N29" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O29" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T29" t="n">
-        <v>2120.543958335516</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U29" t="n">
-        <v>2120.543958335516</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V29" t="n">
-        <v>1763.054543461766</v>
+        <v>1585.507047553096</v>
       </c>
       <c r="W29" t="n">
-        <v>1366.663193762113</v>
+        <v>1189.115697853443</v>
       </c>
       <c r="X29" t="n">
-        <v>1366.663193762113</v>
+        <v>1189.115697853443</v>
       </c>
       <c r="Y29" t="n">
-        <v>1366.663193762113</v>
+        <v>1189.115697853443</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J30" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K30" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L30" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M30" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N30" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O30" t="n">
-        <v>1417.526784297715</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P30" t="n">
-        <v>1417.526784297715</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q30" t="n">
         <v>1771.166545545054</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.8830790816388</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C31" t="n">
-        <v>811.9105159605548</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D31" t="n">
-        <v>648.5937430873255</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E31" t="n">
-        <v>482.385537240179</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F31" t="n">
-        <v>310.5237630147394</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G31" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H31" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6648,25 +6648,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T31" t="n">
-        <v>1981.571904688276</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U31" t="n">
-        <v>1701.38745618858</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.38745618858</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W31" t="n">
-        <v>1642.955712658157</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X31" t="n">
-        <v>1400.391816103962</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y31" t="n">
-        <v>1174.049047793704</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>896.5231368465472</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C32" t="n">
-        <v>469.6224068598473</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D32" t="n">
-        <v>469.6224068598473</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E32" t="n">
-        <v>469.6224068598473</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>595.1637600336854</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L32" t="n">
-        <v>1006.023847611597</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M32" t="n">
-        <v>1006.023847611597</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N32" t="n">
-        <v>1556.689382596035</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O32" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P32" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T32" t="n">
-        <v>1899.618387380149</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U32" t="n">
-        <v>1641.263477976561</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V32" t="n">
-        <v>1283.774063102811</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W32" t="n">
-        <v>896.5231368465472</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X32" t="n">
-        <v>896.5231368465472</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="Y32" t="n">
-        <v>896.5231368465472</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="33">
@@ -6761,40 +6761,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>205.6899987133988</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>205.6899987133988</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>205.6899987133988</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M33" t="n">
-        <v>205.6899987133988</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N33" t="n">
-        <v>756.3555336978368</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O33" t="n">
-        <v>756.3555336978368</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P33" t="n">
         <v>1307.021068682275</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D34" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6885,25 +6885,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T34" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U34" t="n">
-        <v>1944.72680396268</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V34" t="n">
-        <v>1663.015336570709</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W34" t="n">
-        <v>1663.015336570709</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y34" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.81435027937499</v>
+        <v>1130.408973674147</v>
       </c>
       <c r="C35" t="n">
-        <v>55.81435027937499</v>
+        <v>1130.408973674147</v>
       </c>
       <c r="D35" t="n">
-        <v>55.81435027937499</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="E35" t="n">
-        <v>55.81435027937499</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="F35" t="n">
-        <v>55.81435027937499</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G35" t="n">
-        <v>55.81435027937499</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H35" t="n">
-        <v>55.81435027937499</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L35" t="n">
-        <v>595.1637600336854</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M35" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N35" t="n">
-        <v>1696.494830002561</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O35" t="n">
-        <v>1696.494830002561</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P35" t="n">
-        <v>1696.494830002561</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T35" t="n">
-        <v>1899.618387380149</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U35" t="n">
-        <v>1641.263477976561</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V35" t="n">
-        <v>1283.774063102811</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W35" t="n">
-        <v>887.3827134031578</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X35" t="n">
-        <v>475.6627145709051</v>
+        <v>1130.408973674147</v>
       </c>
       <c r="Y35" t="n">
-        <v>475.6627145709051</v>
+        <v>1130.408973674147</v>
       </c>
     </row>
     <row r="36">
@@ -6998,40 +6998,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
-        <v>51.94486801115936</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>602.6104029955973</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L36" t="n">
-        <v>1153.275937980035</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M36" t="n">
-        <v>1153.275937980035</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N36" t="n">
-        <v>1153.275937980035</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O36" t="n">
-        <v>1153.275937980035</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P36" t="n">
         <v>1307.021068682275</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>717.8575411161469</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C37" t="n">
-        <v>545.8849779950629</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D37" t="n">
-        <v>382.5682051218336</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E37" t="n">
-        <v>216.3599992746871</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F37" t="n">
-        <v>44.49822504924752</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G37" t="n">
-        <v>44.49822504924752</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H37" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M37" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P37" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S37" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T37" t="n">
-        <v>2177.872639149549</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U37" t="n">
-        <v>1933.494045912124</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="V37" t="n">
-        <v>1651.782578520152</v>
+        <v>1699.860437296305</v>
       </c>
       <c r="W37" t="n">
-        <v>1376.930174692665</v>
+        <v>1699.860437296305</v>
       </c>
       <c r="X37" t="n">
-        <v>1134.366278138471</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.0235098282126</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>44.49822504924752</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="C38" t="n">
-        <v>44.49822504924752</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="D38" t="n">
-        <v>44.49822504924752</v>
+        <v>993.507283115471</v>
       </c>
       <c r="E38" t="n">
-        <v>44.49822504924752</v>
+        <v>567.5303432633285</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924752</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>44.49822504924752</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L38" t="n">
-        <v>595.1637600336854</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M38" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N38" t="n">
-        <v>1696.494830002561</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O38" t="n">
-        <v>1696.494830002561</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P38" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q38" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T38" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U38" t="n">
-        <v>1862.189048931928</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V38" t="n">
-        <v>1504.699634058178</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W38" t="n">
-        <v>1281.40385821814</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X38" t="n">
-        <v>869.6838593858872</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y38" t="n">
-        <v>464.3465893407776</v>
+        <v>1416.799903930471</v>
       </c>
     </row>
     <row r="39">
@@ -7235,43 +7235,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>44.49822504924752</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L39" t="n">
-        <v>119.1699405917402</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M39" t="n">
-        <v>669.8354755761782</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N39" t="n">
-        <v>1220.501010560616</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O39" t="n">
-        <v>1771.166545545054</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P39" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q39" t="n">
         <v>1771.166545545054</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C40" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7359,25 +7359,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T40" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U40" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V40" t="n">
-        <v>1943.199785070404</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W40" t="n">
-        <v>1668.347381242917</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X40" t="n">
-        <v>1425.783484688723</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y40" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>469.6224068598473</v>
+        <v>1230.141144670584</v>
       </c>
       <c r="C41" t="n">
-        <v>469.6224068598473</v>
+        <v>803.240414683884</v>
       </c>
       <c r="D41" t="n">
-        <v>469.6224068598473</v>
+        <v>803.240414683884</v>
       </c>
       <c r="E41" t="n">
-        <v>469.6224068598473</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F41" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>407.101683866143</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L41" t="n">
-        <v>407.101683866143</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M41" t="n">
-        <v>957.767218850581</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N41" t="n">
-        <v>1508.432753835019</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O41" t="n">
-        <v>1508.432753835019</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P41" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U41" t="n">
-        <v>2055.071534557034</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V41" t="n">
-        <v>1697.582119683283</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W41" t="n">
-        <v>1301.19076998363</v>
+        <v>1230.141144670584</v>
       </c>
       <c r="X41" t="n">
-        <v>889.4707711513774</v>
+        <v>1230.141144670584</v>
       </c>
       <c r="Y41" t="n">
-        <v>889.4707711513774</v>
+        <v>1230.141144670584</v>
       </c>
     </row>
     <row r="42">
@@ -7472,46 +7472,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J42" t="n">
-        <v>201.1892506764434</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K42" t="n">
-        <v>201.1892506764434</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L42" t="n">
-        <v>201.1892506764434</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M42" t="n">
-        <v>751.8547856608814</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N42" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O42" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P42" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q42" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>268.5772905989112</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C43" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D43" t="n">
-        <v>44.49822504924752</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E43" t="n">
-        <v>44.49822504924752</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7593,28 +7593,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U43" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V43" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W43" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X43" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y43" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1537.62647837715</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="C44" t="n">
-        <v>1110.72574839045</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="D44" t="n">
-        <v>1110.72574839045</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="E44" t="n">
-        <v>684.7488085383078</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="F44" t="n">
-        <v>259.624626727708</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G44" t="n">
-        <v>52.54954673343934</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H44" t="n">
-        <v>52.54954673343934</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
-        <v>52.54954673343934</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
-        <v>490.4500146445652</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>567.8937577539346</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L44" t="n">
-        <v>890.7148947339001</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M44" t="n">
-        <v>1541.015535560212</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N44" t="n">
-        <v>2191.316176386524</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O44" t="n">
-        <v>2303.776426036723</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P44" t="n">
-        <v>2394.152234613756</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q44" t="n">
-        <v>2454.19263174025</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R44" t="n">
-        <v>2627.477336671967</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2627.477336671967</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T44" t="n">
-        <v>2627.477336671967</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U44" t="n">
-        <v>2369.194841500933</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V44" t="n">
-        <v>2369.194841500933</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W44" t="n">
-        <v>2369.194841500933</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X44" t="n">
-        <v>1957.47484266868</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="Y44" t="n">
-        <v>1957.47484266868</v>
+        <v>887.3827134031587</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>614.5112820992194</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>497.0053786167242</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>393.1654201320093</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>288.4634864049465</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>194.8176560878507</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>101.2481971827279</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>52.54954673343934</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>76.33916842548948</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
-        <v>100.78054801586</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>155.2549177192678</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>236.0298432779762</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M45" t="n">
-        <v>886.330484104288</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N45" t="n">
-        <v>988.6559556911582</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O45" t="n">
-        <v>1078.653054569828</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P45" t="n">
-        <v>1208.867406764147</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q45" t="n">
-        <v>1733.604737507429</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.095538917461</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1772.767190756137</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1632.839375817912</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1448.103042426843</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1243.12990356611</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1046.608526399327</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>883.1311801659898</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>743.4382915192822</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1031.946078887644</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C46" t="n">
-        <v>859.97351576656</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D46" t="n">
-        <v>696.6567428933307</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E46" t="n">
-        <v>530.4485370461842</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="F46" t="n">
-        <v>358.5867628207446</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="G46" t="n">
-        <v>192.7358247621587</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="H46" t="n">
-        <v>52.54954673343934</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I46" t="n">
-        <v>52.54954673343934</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
-        <v>138.1760543079874</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>410.9383979720969</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>824.7922715484102</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>1278.358791417565</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
-        <v>1716.747752982184</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>2128.424533910869</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>2467.154185086671</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>2627.477336671967</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>2627.477336671967</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>2464.418313442444</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.03341761059</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U46" t="n">
-        <v>1965.87111629165</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V46" t="n">
-        <v>1965.87111629165</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W46" t="n">
-        <v>1691.018712464162</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.454815909968</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y46" t="n">
-        <v>1222.11204759971</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104033</v>
+        <v>203.2524428583638</v>
       </c>
       <c r="L2" t="n">
-        <v>453.3222319052608</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150258</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500401</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
@@ -8002,7 +8002,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>454.9370402678085</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>184.5908146029612</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>547.8252218830993</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>549.9687528290794</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8312,13 +8312,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204227</v>
+        <v>371.4608596749573</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517276</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8467,10 +8467,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>300.4142109955938</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>549.8528999481832</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8549,13 +8549,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>78.70880469517276</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
         <v>249.7804132464869</v>
@@ -8631,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M11" t="n">
-        <v>547.976861948085</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N11" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>578.6270469489274</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L12" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,16 +8783,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q12" t="n">
-        <v>181.020801548772</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517276</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8929,22 +8929,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>591.9924139104033</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N14" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P14" t="n">
-        <v>181.8548408418183</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L15" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>461.830509216993</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>111.3736009736648</v>
       </c>
       <c r="M17" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O17" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>300.5986134498009</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>578.6270469489274</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9254,19 +9254,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>179.6167914733353</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378162</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P18" t="n">
-        <v>577.9986543204227</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>591.9924139104035</v>
+        <v>569.51856287543</v>
       </c>
       <c r="L20" t="n">
         <v>38.31204243262292</v>
@@ -9412,19 +9412,19 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O20" t="n">
-        <v>86.13502881159596</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P20" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L21" t="n">
-        <v>180.7888499740227</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378163</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9640,10 +9640,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>182.5915214642101</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M23" t="n">
         <v>37.43126289943181</v>
@@ -9652,16 +9652,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P23" t="n">
-        <v>593.8031749258255</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P24" t="n">
-        <v>458.854857777643</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9877,25 +9877,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L26" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M26" t="n">
-        <v>300.4545145390015</v>
+        <v>204.9191049629863</v>
       </c>
       <c r="N26" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P26" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9950,25 +9950,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>467.0051119838364</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>569.5185628754297</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150258</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N29" t="n">
-        <v>593.5074359500401</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O29" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q30" t="n">
-        <v>379.9589183367962</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10278,7 +10278,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.712606528103</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104032</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L32" t="n">
-        <v>453.3222319052608</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M32" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>183.431087731466</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10439,13 +10439,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>577.9986543204226</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L35" t="n">
-        <v>594.5398555482168</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P35" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>451.1348640772358</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10664,13 +10664,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L36" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10682,7 +10682,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>177.0689530252726</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K37" t="n">
         <v>249.7804132464869</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L38" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P38" t="n">
-        <v>110.6369203512729</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,31 +10898,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L39" t="n">
-        <v>97.94106200967673</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11062,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>203.2524428583638</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N41" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>181.854840841818</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>178.8848775931272</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>222.9785750572458</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M44" t="n">
-        <v>536.9486901204622</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N44" t="n">
-        <v>534.2509316947205</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M45" t="n">
-        <v>558.4794156852623</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>61.7427972972998</v>
+        <v>454.308647639304</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>28.05001462350992</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>30.98595187168894</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22713,19 +22713,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>79.60300996423396</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6172179931338491</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -22786,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>341.6181830358607</v>
+        <v>226.9120251707408</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -22849,7 +22849,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>35.97245832688748</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22995,13 +22995,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.6007217807226</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>122.0249935668614</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -23086,10 +23086,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23181,10 +23181,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,19 +23229,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>132.3295297172718</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>262.4481532729168</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -23320,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>333.7499474520716</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568368</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>71.98949189919244</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>355.0277088474713</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>242.1840969541643</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>112.3596550292944</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -23800,7 +23800,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>159.3743670546817</v>
       </c>
     </row>
     <row r="18">
@@ -23901,13 +23901,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>5.248697164950812</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0.6172179931342043</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>31.37599128644189</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>112.2383956133745</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -24028,10 +24028,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24147,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>47.18544517283286</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>44.64613243500548</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>339.3308469547508</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>40.74128133298188</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>2.326677470262922</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>59.60499233113404</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>199.556803259082</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24612,16 +24612,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.1362268027148</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -24697,10 +24697,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>276.9210239680179</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>298.7156546057811</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>214.2564536940932</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24928,13 +24928,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>9.049019208955542</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>158.6899992158468</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>122.4992781335012</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>94.3185907453622</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>23.3449385661373</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>35.44779670964772</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>86.02262841516071</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>303.3668147469995</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>171.3646181210192</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.2205539080146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>87.63003958326345</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>339.3308469547508</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>316.1505655932366</v>
       </c>
       <c r="G44" t="n">
-        <v>194.3952164642692</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>285.7122430338547</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>45.91410070006346</v>
       </c>
       <c r="I46" t="n">
-        <v>86.68250837722755</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>28.49413443704394</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>22.9873935552437</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>483737.0677648336</v>
+        <v>483737.0677648337</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>483737.0677648336</v>
+        <v>483737.0677648337</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>483737.0677648337</v>
+        <v>483737.0677648336</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>483737.0677648336</v>
+        <v>483737.0677648338</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>483737.0677648336</v>
+        <v>483737.0677648337</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>483737.0677648337</v>
+        <v>483737.0677648336</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>483737.0677648336</v>
+        <v>483737.0677648337</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>483737.0677648336</v>
+        <v>483737.0677648337</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>483737.0677648336</v>
+        <v>483737.0677648337</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>530386.0753656642</v>
+        <v>483737.0677648337</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>160941.581932267</v>
       </c>
       <c r="C2" t="n">
-        <v>160941.5819322669</v>
+        <v>160941.581932267</v>
       </c>
       <c r="D2" t="n">
         <v>160941.581932267</v>
@@ -26328,7 +26328,7 @@
         <v>160941.581932267</v>
       </c>
       <c r="G2" t="n">
-        <v>160941.5819322671</v>
+        <v>160941.581932267</v>
       </c>
       <c r="H2" t="n">
         <v>160941.581932267</v>
@@ -26337,7 +26337,7 @@
         <v>160941.5819322669</v>
       </c>
       <c r="J2" t="n">
-        <v>160941.5819322669</v>
+        <v>160941.5819322671</v>
       </c>
       <c r="K2" t="n">
         <v>160941.581932267</v>
@@ -26346,16 +26346,16 @@
         <v>160941.581932267</v>
       </c>
       <c r="M2" t="n">
-        <v>160941.5819322669</v>
+        <v>160941.5819322671</v>
       </c>
       <c r="N2" t="n">
         <v>160941.581932267</v>
       </c>
       <c r="O2" t="n">
+        <v>160941.581932267</v>
+      </c>
+      <c r="P2" t="n">
         <v>160941.5819322669</v>
-      </c>
-      <c r="P2" t="n">
-        <v>183260.6469238934</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>172153.4997602383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059495</v>
       </c>
       <c r="C4" t="n">
         <v>52194.43267059495</v>
@@ -26429,10 +26429,10 @@
         <v>52194.43267059494</v>
       </c>
       <c r="F4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059495</v>
       </c>
       <c r="G4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059495</v>
       </c>
       <c r="H4" t="n">
         <v>52194.43267059494</v>
@@ -26441,25 +26441,25 @@
         <v>52194.43267059495</v>
       </c>
       <c r="J4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059495</v>
       </c>
       <c r="K4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059495</v>
       </c>
       <c r="L4" t="n">
         <v>52194.43267059494</v>
       </c>
       <c r="M4" t="n">
-        <v>52194.43267059493</v>
+        <v>52194.43267059495</v>
       </c>
       <c r="N4" t="n">
         <v>52194.43267059494</v>
       </c>
       <c r="O4" t="n">
-        <v>52194.43267059493</v>
+        <v>52194.43267059494</v>
       </c>
       <c r="P4" t="n">
-        <v>38995.26096811709</v>
+        <v>52194.43267059494</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
         <v>33818.65103742812</v>
@@ -26493,25 +26493,25 @@
         <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>44797.12347721619</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-145103.8351904933</v>
+        <v>-145712.880902983</v>
       </c>
       <c r="C6" t="n">
-        <v>41300.89822424388</v>
+        <v>40691.85251175429</v>
       </c>
       <c r="D6" t="n">
-        <v>41300.89822424394</v>
+        <v>40691.85251175429</v>
       </c>
       <c r="E6" t="n">
-        <v>74928.49822424394</v>
+        <v>74319.45251175427</v>
       </c>
       <c r="F6" t="n">
-        <v>74928.49822424393</v>
+        <v>74319.45251175427</v>
       </c>
       <c r="G6" t="n">
-        <v>74928.498224244</v>
+        <v>74319.45251175427</v>
       </c>
       <c r="H6" t="n">
-        <v>74928.49822424391</v>
+        <v>74319.45251175427</v>
       </c>
       <c r="I6" t="n">
-        <v>74928.49822424387</v>
+        <v>74319.45251175421</v>
       </c>
       <c r="J6" t="n">
-        <v>-70605.17171057258</v>
+        <v>-71214.21742306219</v>
       </c>
       <c r="K6" t="n">
-        <v>74928.49822424399</v>
+        <v>74319.45251175429</v>
       </c>
       <c r="L6" t="n">
-        <v>74928.49822424399</v>
+        <v>74319.45251175429</v>
       </c>
       <c r="M6" t="n">
-        <v>74928.49822424391</v>
+        <v>74319.45251175432</v>
       </c>
       <c r="N6" t="n">
-        <v>74928.49822424393</v>
+        <v>74319.45251175425</v>
       </c>
       <c r="O6" t="n">
-        <v>74928.49822424391</v>
+        <v>74319.45251175425</v>
       </c>
       <c r="P6" t="n">
-        <v>-72685.2372816781</v>
+        <v>74319.45251175422</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>222.9113743028576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="F4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="G4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
         <v>556.2278131155941</v>
@@ -26813,25 +26813,25 @@
         <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>656.8693341679917</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>222.9113743028576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>100.6415210523978</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8961261278506832</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>9.177451706850812</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>76.057584943667</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>113.9906039355864</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>141.4154239207968</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>157.3519069469614</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>159.8980253077172</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>150.9871711239019</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>128.8640573425882</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>96.77154038893555</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>56.29128287860053</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.42047413839747</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>3.922792124666368</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.07169009022805464</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4794697485004862</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>4.630668360517855</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.50805932337201</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>45.29937654582884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>77.42384969536141</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>104.1059206119148</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>121.4866989950574</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>124.7020904225015</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>114.0780502057275</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>91.55769258865865</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>61.20389280858839</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.76918315689862</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>8.905940284647183</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.932599556455907</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03154406240134779</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4019713307100711</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>3.573890558494998</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>12.08837419989923</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>28.41937308120202</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>46.70176005886098</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>59.76217402211368</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>63.01083323121595</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>61.51257645311483</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>56.81682045345625</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>48.61660530697076</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>33.6596175197315</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.07409274265465</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>7.005264008829146</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.717513867579394</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02192570894782209</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.227813115594</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="L2" t="n">
-        <v>415.0101894726379</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34722,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>432.5378064344752</v>
       </c>
       <c r="L3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>162.8199733981326</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>510.5455990486533</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>527.4536661148499</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.227813115594</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127089</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>263.0232516395697</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>527.4536661148499</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>58.07204871127089</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
         <v>228.8157587937749</v>
@@ -35351,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M11" t="n">
-        <v>510.5455990486532</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N11" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>556.227813115594</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L12" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.2737632597935</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.07204871127089</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
         <v>228.8157587937749</v>
@@ -35649,22 +35649,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P14" t="n">
-        <v>144.279479031587</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L15" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>440.0596680121643</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O17" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>263.0232516395696</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>158.2737632597936</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>556.227813115594</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="P18" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36132,19 +36132,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O20" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L21" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155941</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36360,11 +36360,11 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L23" t="n">
-        <v>144.2794790315872</v>
-      </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
@@ -36372,16 +36372,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P23" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36451,10 +36451,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="P24" t="n">
-        <v>437.0840165728143</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
@@ -36597,25 +36597,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L26" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M26" t="n">
-        <v>263.0232516395697</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P26" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>444.6058781505031</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>556.227813115594</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N29" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q30" t="n">
-        <v>357.2118800478177</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -36998,7 +36998,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M31" t="n">
-        <v>395.1371666366172</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N31" t="n">
         <v>381.3045564404402</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L32" t="n">
-        <v>415.0101894726379</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>162.8199733981326</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>415.0101894726378</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37384,13 +37384,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>155.2981118204439</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K37" t="n">
         <v>228.8157587937749</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L38" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M38" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P38" t="n">
-        <v>73.06155854104156</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L39" t="n">
-        <v>75.42597529544717</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37782,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>144.2794790315867</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>158.2737632597938</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>442.3237049607332</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>78.22600314077711</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>326.0819565454198</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M44" t="n">
-        <v>656.8693341679917</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N44" t="n">
-        <v>656.8693341679917</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>113.5962117678778</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>91.28869553235688</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.64686578433751</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>175.035055486583</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>24.02992090106073</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>24.68826221249551</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>55.02461586202807</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
-        <v>81.59083389768524</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M45" t="n">
-        <v>656.8693341679917</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>103.3590622089598</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>90.90616048350532</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>131.5296486811298</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="Q45" t="n">
-        <v>530.0377078214968</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>112.6169711212452</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>86.49142179247275</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>275.5175188526359</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>418.0342157336498</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1479998678329</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>442.817132893555</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
-        <v>415.8351322511967</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>342.1511628038405</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>161.942577358885</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
